--- a/lesson1.xlsx
+++ b/lesson1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/lessons_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{674E8C0C-4F92-7140-B9C6-70303BAF2543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9444A5A9-5208-8A42-9241-1425ECDA9B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15800" xr2:uid="{B58ACC9C-D305-514C-A917-98EE497E47E3}"/>
   </bookViews>
@@ -36,11 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>test</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -418,8 +414,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
